--- a/src/main/java/data/ImportFileNew.xlsx
+++ b/src/main/java/data/ImportFileNew.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IAS\autotests\src\main\java\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v.anokhin\IdeaProjects\nais_IAS\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{C12B95F2-6268-4C71-8BCA-A01B3740AE3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{51173D78-50D1-4306-BF85-33A09DE927C4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4123E592-456C-437F-AC78-179574B9F517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8676" windowHeight="7140" xr2:uid="{B863C57A-6575-4BF5-83A5-DF8BBF84F7A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B863C57A-6575-4BF5-83A5-DF8BBF84F7A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" refMode="R1C1" calcCompleted="0"/>
+  <calcPr calcId="191028" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,33 +35,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
   <si>
-    <t>№ з/п</t>
-  </si>
-  <si>
-    <t>Найменування юридичної особи або прізвище, ім'я по-батькові фізичної особи-підприємця (повністю)</t>
-  </si>
-  <si>
     <t>Код ЄДРПОУ або реєстраційний номер облікової картки платника податків фізичної особи - підприємця</t>
   </si>
   <si>
-    <t>Місце провадження господарської діяльності (якщо відрізняється від місцезнаходження суб'єкта, вказаного в ЄДР) (необов'язково)</t>
-  </si>
-  <si>
-    <t>Дата здійснення останнього планового заходу (необов'язково)</t>
-  </si>
-  <si>
-    <t>Найменування відокремленого підрозділу юридичної особи (необов'язково)</t>
-  </si>
-  <si>
-    <t>Код відокремленого підрозділу юридичної особи (необов'язково)</t>
-  </si>
-  <si>
-    <t>Ступінь ризику (необов'язково)</t>
-  </si>
-  <si>
-    <t>Бал за показниками критеріїв ризику (необов'язково)</t>
-  </si>
-  <si>
     <t>ПРИВАТНЕ ПІДПРИЄМСТВО "ЛЕЮР"</t>
   </si>
   <si>
@@ -201,13 +177,131 @@
   </si>
   <si>
     <t>Низький</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> № з/п</t>
+  </si>
+  <si>
+    <r>
+      <t>Найменування юридичної особи або прізвище, ім'я по-батькові фізичної особи-підприємця (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>повністю</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Місце провадження господарської діяльності (якщо відрізняється від місцезнаходження суб'єкта, вказаного в ЄДР) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(необов'язково)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Дата здійснення останнього планового заходу</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (необов'язково)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Найменування відокремленого підрозділу юридичної особи</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (необов'язково)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Код відокремленого підрозділу юридичної особи </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(необов'язково)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ступінь ризику</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (необов'язково)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Бал за показниками критеріїв ризику</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (необов'язково)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +340,39 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -343,14 +470,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -399,6 +525,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -423,6 +550,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -441,13 +570,18 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{D7BD1148-3510-4675-BCDC-A94CEEDE301A}"/>
+    <cellStyle name="Обычный 3" xfId="1" xr:uid="{D442C8DF-2FF8-43DE-9884-FF980D5DEF02}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -463,9 +597,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -503,7 +637,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -609,7 +743,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -759,623 +893,623 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE5216E-D4F1-40D0-9296-C51CADD7D2C9}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:E26"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="2"/>
-    <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="27.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="86.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+    </row>
+    <row r="2" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>22482005</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I2" s="17">
+        <v>2</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C3" s="4">
+        <v>20923474</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-    </row>
-    <row r="2" spans="1:13" ht="46.9">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="I3" s="17">
+        <v>13</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5">
-        <v>22482005</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C4" s="4">
+        <v>38948464</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="6" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="17">
+        <v>2</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="18">
+      <c r="C5" s="4">
+        <v>43351834</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="17">
         <v>2</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-    </row>
-    <row r="3" spans="1:13" ht="63">
-      <c r="A3" s="3">
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4">
+        <v>420011321</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4">
+        <v>42229041</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="17">
+        <v>2</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4">
+        <v>38915046</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4">
+        <v>41990579</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="17">
+        <v>42</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+    </row>
+    <row r="10" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9">
+        <v>41990579</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="18">
+        <v>42</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+    </row>
+    <row r="11" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4">
+        <v>41233523</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="17">
+        <v>2</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="9">
+        <v>3768598</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="18">
+        <v>2</v>
+      </c>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+    </row>
+    <row r="13" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4">
+        <v>26542626</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="17">
+        <v>2</v>
+      </c>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+    </row>
+    <row r="14" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="C3" s="5">
-        <v>20923474</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="9">
+        <v>19213218</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="18">
+        <v>2</v>
+      </c>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+    </row>
+    <row r="15" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="B15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="9">
+        <v>855440</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="18">
+        <v>47</v>
+      </c>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5" t="s">
+      <c r="B16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="9">
+        <v>5414752</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="18">
+        <v>44</v>
+      </c>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="I3" s="18">
-        <v>13</v>
-      </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-    </row>
-    <row r="4" spans="1:13" ht="62.45">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="B17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="9">
+        <v>20928709</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="18">
+        <v>2</v>
+      </c>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="18" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="C4" s="5">
-        <v>38948464</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="18">
+      <c r="B18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="9">
+        <v>30863944</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="18">
         <v>2</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-    </row>
-    <row r="5" spans="1:13" ht="63">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="5">
-        <v>43351834</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="18">
-        <v>2</v>
-      </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-    </row>
-    <row r="6" spans="1:13" ht="78.75">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5">
-        <v>420011321</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="18">
-        <v>2</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-    </row>
-    <row r="7" spans="1:13" ht="62.45">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="5">
-        <v>42229041</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="18">
-        <v>2</v>
-      </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-    </row>
-    <row r="8" spans="1:13" ht="62.45">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="5">
-        <v>38915046</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" ht="78">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="5">
-        <v>41990579</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="18">
-        <v>42</v>
-      </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" spans="1:13" ht="78">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="10">
-        <v>41990579</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="19">
-        <v>42</v>
-      </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-    </row>
-    <row r="11" spans="1:13" ht="78">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="5">
-        <v>41233523</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="18">
-        <v>2</v>
-      </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-    </row>
-    <row r="12" spans="1:13" ht="31.15">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="10">
-        <v>3768598</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="19">
-        <v>2</v>
-      </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-    </row>
-    <row r="13" spans="1:13" ht="78">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="5">
-        <v>26542626</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="18">
-        <v>2</v>
-      </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-    </row>
-    <row r="14" spans="1:13" ht="62.45">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="10">
-        <v>19213218</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="19">
-        <v>2</v>
-      </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-    </row>
-    <row r="15" spans="1:13" ht="78">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="10">
-        <v>855440</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="19">
-        <v>47</v>
-      </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-    </row>
-    <row r="16" spans="1:13" ht="62.45">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="10">
-        <v>5414752</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="19">
-        <v>44</v>
-      </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-    </row>
-    <row r="17" spans="1:13" ht="62.45">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="10">
-        <v>20928709</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="19">
-        <v>2</v>
-      </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-    </row>
-    <row r="18" spans="1:13" ht="62.45">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="10">
-        <v>30863944</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="19">
-        <v>2</v>
-      </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-    </row>
-    <row r="19" spans="1:13" ht="36" customHeight="1">
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+    </row>
+    <row r="19" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C19" s="22">
         <v>14314452</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="G19" s="26">
         <v>238167151</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I19" s="22">
         <v>47</v>
       </c>
-      <c r="J19" s="34"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-    </row>
-    <row r="20" spans="1:13" ht="225">
+      <c r="J19" s="28"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+    </row>
+    <row r="20" spans="1:13" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
       <c r="E20" s="25"/>
-      <c r="F20" s="13" t="s">
-        <v>51</v>
+      <c r="F20" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-    </row>
-    <row r="21" spans="1:13" ht="36" customHeight="1">
-      <c r="A21" s="28">
+      <c r="J20" s="28"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+    </row>
+    <row r="21" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
         <v>19</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="30">
+        <v>38</v>
+      </c>
+      <c r="C21" s="32">
         <v>14314452</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="32">
+        <v>40</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="34">
         <v>22979800</v>
       </c>
-      <c r="H21" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="30">
+      <c r="H21" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="32">
         <v>47</v>
       </c>
       <c r="J21" s="36"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-    </row>
-    <row r="22" spans="1:13" ht="162" customHeight="1">
-      <c r="A22" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+    </row>
+    <row r="22" spans="1:13" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
       <c r="B22" s="23"/>
-      <c r="C22" s="31"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="23"/>
       <c r="E22" s="25"/>
-      <c r="F22" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
+      <c r="F22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
       <c r="J22" s="36"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-    </row>
-    <row r="23" spans="1:13" ht="36" customHeight="1">
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+    </row>
+    <row r="23" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>20</v>
       </c>
@@ -1383,101 +1517,136 @@
         <v>14314452</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="G23" s="26">
         <v>22979800</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I23" s="22">
         <v>47</v>
       </c>
-      <c r="J23" s="34"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-    </row>
-    <row r="24" spans="1:13" ht="162" customHeight="1">
+      <c r="J23" s="28"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+    </row>
+    <row r="24" spans="1:13" ht="162" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
       <c r="E24" s="25"/>
-      <c r="F24" s="13" t="s">
-        <v>53</v>
+      <c r="F24" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-    </row>
-    <row r="25" spans="1:13" ht="36" customHeight="1">
+      <c r="J24" s="28"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+    </row>
+    <row r="25" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>21</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C25" s="22">
         <v>4653578</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="G25" s="26">
         <v>22979800</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I25" s="22">
         <v>5</v>
       </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-    </row>
-    <row r="26" spans="1:13" ht="162" customHeight="1">
+      <c r="J25" s="28"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+    </row>
+    <row r="26" spans="1:13" ht="162" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
       <c r="E26" s="25"/>
-      <c r="F26" s="13" t="s">
-        <v>53</v>
+      <c r="F26" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-    </row>
-    <row r="27" spans="1:13" ht="15"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+    </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
     <mergeCell ref="M25:M26"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
@@ -1490,42 +1659,6 @@
     <mergeCell ref="J25:J26"/>
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
